--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_2.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_4_2.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_0</t>
+          <t>model_4_2_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9354673069682259</v>
+        <v>0.9660589376771552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7841838742934951</v>
+        <v>0.7963349531936486</v>
       </c>
       <c r="D2" t="n">
-        <v>0.834046130239769</v>
+        <v>0.9856024673963911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6138591665630591</v>
+        <v>0.9231488486618092</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8398040190611943</v>
+        <v>0.9682955857799485</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4315304154492022</v>
+        <v>0.2269640400370844</v>
       </c>
       <c r="H2" t="n">
-        <v>1.443163426341282</v>
+        <v>1.361909105785382</v>
       </c>
       <c r="I2" t="n">
-        <v>1.075683164629872</v>
+        <v>0.1908543044166934</v>
       </c>
       <c r="J2" t="n">
-        <v>1.599101972752128</v>
+        <v>0.7333308983983414</v>
       </c>
       <c r="K2" t="n">
-        <v>1.337393470966914</v>
+        <v>0.4620925872905905</v>
       </c>
       <c r="L2" t="n">
-        <v>0.92917906373392</v>
+        <v>0.6690623069631733</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6569097468063647</v>
+        <v>0.4764074307114493</v>
       </c>
       <c r="N2" t="n">
-        <v>1.041859044128718</v>
+        <v>1.022015824209413</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6848757547185523</v>
+        <v>0.4966890813361715</v>
       </c>
       <c r="P2" t="n">
-        <v>123.6808345664548</v>
+        <v>124.9659273759662</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.032259883415</v>
+        <v>199.3173526929264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_4_2_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9347464558273453</v>
+        <v>0.9678309710262684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7832615870398687</v>
+        <v>0.7962818051002374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8299836108986085</v>
+        <v>0.9840182478242886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6119208377187757</v>
+        <v>0.9231723513148378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8377463712203245</v>
+        <v>0.9675828508214348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4363507503474853</v>
+        <v>0.215114444872102</v>
       </c>
       <c r="H3" t="n">
-        <v>1.449330765453025</v>
+        <v>1.362264507330748</v>
       </c>
       <c r="I3" t="n">
-        <v>1.102015685031977</v>
+        <v>0.2118547864299205</v>
       </c>
       <c r="J3" t="n">
-        <v>1.607129058235803</v>
+        <v>0.7331066308192613</v>
       </c>
       <c r="K3" t="n">
-        <v>1.354571709595632</v>
+        <v>0.4724807161721426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9136484914925351</v>
+        <v>0.628814691838474</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6605685054159677</v>
+        <v>0.4638043174358147</v>
       </c>
       <c r="N3" t="n">
-        <v>1.042326623247127</v>
+        <v>1.02086639717215</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6886902742568406</v>
+        <v>0.483549427436352</v>
       </c>
       <c r="P3" t="n">
-        <v>123.6586177715485</v>
+        <v>125.0731701814922</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.0100430885087</v>
+        <v>199.4245954984524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_4_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9340775379284298</v>
+        <v>0.9690013250619202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7824090449835925</v>
+        <v>0.7959335276804729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8262936596569382</v>
+        <v>0.9820350910713616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6101176156237672</v>
+        <v>0.9230374629262645</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8358665943811103</v>
+        <v>0.9666368473275782</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4408238074176165</v>
+        <v>0.2072882820467134</v>
       </c>
       <c r="H4" t="n">
-        <v>1.455031718108938</v>
+        <v>1.364593440040383</v>
       </c>
       <c r="I4" t="n">
-        <v>1.12593328595749</v>
+        <v>0.2381435966760783</v>
       </c>
       <c r="J4" t="n">
-        <v>1.614596634207432</v>
+        <v>0.7343937660339387</v>
       </c>
       <c r="K4" t="n">
-        <v>1.370264995138172</v>
+        <v>0.4862687394747685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.899598290400634</v>
+        <v>0.5926924056350916</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6639456358901807</v>
+        <v>0.4552892290036229</v>
       </c>
       <c r="N4" t="n">
-        <v>1.042760515938316</v>
+        <v>1.020107248608484</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6922111761669648</v>
+        <v>0.4746718340609388</v>
       </c>
       <c r="P4" t="n">
-        <v>123.6382200260676</v>
+        <v>125.1472895753711</v>
       </c>
       <c r="Q4" t="n">
-        <v>197.9896453430279</v>
+        <v>199.4987148923313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_3</t>
+          <t>model_4_2_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.933459480030619</v>
+        <v>0.9634954850847137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7816235857916322</v>
+        <v>0.7959246866628538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8229478102258319</v>
+        <v>0.9866332318560177</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6084463768630282</v>
+        <v>0.9228255925575953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.834153221726197</v>
+        <v>0.9686585090937855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4449567634261731</v>
+        <v>0.2441058593263547</v>
       </c>
       <c r="H5" t="n">
-        <v>1.460284087342284</v>
+        <v>1.364652559965911</v>
       </c>
       <c r="I5" t="n">
-        <v>1.147620480776313</v>
+        <v>0.177190446908902</v>
       </c>
       <c r="J5" t="n">
-        <v>1.621517635479042</v>
+        <v>0.7364154805443234</v>
       </c>
       <c r="K5" t="n">
-        <v>1.384569058127677</v>
+        <v>0.4568029714057161</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8868963569273351</v>
+        <v>0.7138652717644414</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6670507952368944</v>
+        <v>0.4940707027606016</v>
       </c>
       <c r="N5" t="n">
-        <v>1.043161418358517</v>
+        <v>1.023678604269375</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6954485285756339</v>
+        <v>0.5151043154444699</v>
       </c>
       <c r="P5" t="n">
-        <v>123.6195563247528</v>
+        <v>124.8203065961527</v>
       </c>
       <c r="Q5" t="n">
-        <v>197.970981641713</v>
+        <v>199.1717319131129</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9328901937947562</v>
+        <v>0.9697221318144834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7809020182321278</v>
+        <v>0.7954082341497029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8199167660125284</v>
+        <v>0.9798003351846893</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6069019943084299</v>
+        <v>0.9228280156986109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8325935265931855</v>
+        <v>0.9655520360348778</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4487635831067086</v>
+        <v>0.2024682439733129</v>
       </c>
       <c r="H6" t="n">
-        <v>1.465109212935203</v>
+        <v>1.368106080299396</v>
       </c>
       <c r="I6" t="n">
-        <v>1.167267164738609</v>
+        <v>0.2677676157378608</v>
       </c>
       <c r="J6" t="n">
-        <v>1.627913294720155</v>
+        <v>0.7363923583900421</v>
       </c>
       <c r="K6" t="n">
-        <v>1.397590146892602</v>
+        <v>0.5020798897293257</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8754172108033578</v>
+        <v>0.5602472403853058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6698981886127986</v>
+        <v>0.4499647141424679</v>
       </c>
       <c r="N6" t="n">
-        <v>1.043530685106104</v>
+        <v>1.019639698282497</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6984171413824672</v>
+        <v>0.4691206435788792</v>
       </c>
       <c r="P6" t="n">
-        <v>123.6025181417525</v>
+        <v>125.1943444492359</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.9539434587128</v>
+        <v>199.5457697661961</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9323676249016355</v>
+        <v>0.9701125430032833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7802407998005668</v>
+        <v>0.7947854631640326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8171750044057903</v>
+        <v>0.977440133503205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6054794593905881</v>
+        <v>0.9225889324314279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8311763332048739</v>
+        <v>0.9644004593584321</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4522580037012157</v>
+        <v>0.1998575625561302</v>
       </c>
       <c r="H7" t="n">
-        <v>1.469530783631682</v>
+        <v>1.37227055274817</v>
       </c>
       <c r="I7" t="n">
-        <v>1.185038770824431</v>
+        <v>0.2990545495899763</v>
       </c>
       <c r="J7" t="n">
-        <v>1.633804353620044</v>
+        <v>0.7386737444729105</v>
       </c>
       <c r="K7" t="n">
-        <v>1.409421562222238</v>
+        <v>0.5188641470314435</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8650338981944526</v>
+        <v>0.5310931604560415</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6725013038658109</v>
+        <v>0.4470543172324031</v>
       </c>
       <c r="N7" t="n">
-        <v>1.043869648712453</v>
+        <v>1.019386458592465</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7011310766409917</v>
+        <v>0.4660863450470008</v>
       </c>
       <c r="P7" t="n">
-        <v>123.5870049146964</v>
+        <v>125.2203007067585</v>
       </c>
       <c r="Q7" t="n">
-        <v>197.9384302316567</v>
+        <v>199.5717260237187</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9318889966746212</v>
+        <v>0.9702638196639904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7796361211442833</v>
+        <v>0.7941174907722215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8146964076280743</v>
+        <v>0.9750544276083102</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6041720961244209</v>
+        <v>0.9223400298333938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8298898543844671</v>
+        <v>0.9632340879217096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4554585928591408</v>
+        <v>0.1988459748294161</v>
       </c>
       <c r="H8" t="n">
-        <v>1.473574272590539</v>
+        <v>1.376737287207941</v>
       </c>
       <c r="I8" t="n">
-        <v>1.201104589774884</v>
+        <v>0.330679568379573</v>
       </c>
       <c r="J8" t="n">
-        <v>1.639218459037034</v>
+        <v>0.7410488288099922</v>
       </c>
       <c r="K8" t="n">
-        <v>1.420161709165167</v>
+        <v>0.5358640383145969</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8556650957184715</v>
+        <v>0.5050214121991582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6748767241942344</v>
+        <v>0.4459214895353397</v>
       </c>
       <c r="N8" t="n">
-        <v>1.04418011026511</v>
+        <v>1.019288333190925</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7036076235305943</v>
+        <v>0.4649052905295968</v>
       </c>
       <c r="P8" t="n">
-        <v>123.572900942448</v>
+        <v>125.2304494995583</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.9243262594082</v>
+        <v>199.5818748165185</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9314516134937491</v>
+        <v>0.9702448251719735</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7790841713506731</v>
+        <v>0.793437694060765</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8124572514374798</v>
+        <v>0.9727161002111562</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6029739557106106</v>
+        <v>0.9220881307731879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8287234627669865</v>
+        <v>0.9620882600228353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4583833762035973</v>
+        <v>0.1989729910849949</v>
       </c>
       <c r="H9" t="n">
-        <v>1.477265163401906</v>
+        <v>1.381283090947626</v>
       </c>
       <c r="I9" t="n">
-        <v>1.215618397863115</v>
+        <v>0.3616765357884518</v>
       </c>
       <c r="J9" t="n">
-        <v>1.644180246378468</v>
+        <v>0.7434525060602337</v>
       </c>
       <c r="K9" t="n">
-        <v>1.429899310100392</v>
+        <v>0.5525645070476143</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8472014675415239</v>
+        <v>0.4819216490069514</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6770401584866272</v>
+        <v>0.446063886775196</v>
       </c>
       <c r="N9" t="n">
-        <v>1.044463818274325</v>
+        <v>1.019300653942504</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7058631596997406</v>
+        <v>0.4650537499147566</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5600987581311</v>
+        <v>125.2291723733197</v>
       </c>
       <c r="Q9" t="n">
-        <v>197.9115240750913</v>
+        <v>199.5805976902799</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9310525622019281</v>
+        <v>0.9701069162850239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7785811774408011</v>
+        <v>0.7927665875607598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8104354610850407</v>
+        <v>0.9704744425999604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6018773160036547</v>
+        <v>0.9218339636465814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8276666072111889</v>
+        <v>0.9609856625153788</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4610518340294664</v>
+        <v>0.1998951884470394</v>
       </c>
       <c r="H10" t="n">
-        <v>1.480628685993294</v>
+        <v>1.385770783203323</v>
       </c>
       <c r="I10" t="n">
-        <v>1.228723279645457</v>
+        <v>0.3913920444039977</v>
       </c>
       <c r="J10" t="n">
-        <v>1.64872169490434</v>
+        <v>0.7458778257080474</v>
       </c>
       <c r="K10" t="n">
-        <v>1.438722451054338</v>
+        <v>0.5686348918030126</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8395648905806057</v>
+        <v>0.4610443771214313</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6790079778835197</v>
+        <v>0.4470963972646608</v>
       </c>
       <c r="N10" t="n">
-        <v>1.044722662355506</v>
+        <v>1.01939010835566</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7079147532423065</v>
+        <v>0.4661302165133493</v>
       </c>
       <c r="P10" t="n">
-        <v>123.5484896081288</v>
+        <v>125.2199242151303</v>
       </c>
       <c r="Q10" t="n">
-        <v>197.899914925089</v>
+        <v>199.5713495320906</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9306892332807944</v>
+        <v>0.9698884032759465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7781234628360525</v>
+        <v>0.7921170069615142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8086115744852891</v>
+        <v>0.9683598395558936</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6008758351226615</v>
+        <v>0.9215779124718324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8267101204870507</v>
+        <v>0.9599402246305426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.463481416198063</v>
+        <v>0.2013563859448998</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48368942566283</v>
+        <v>1.390114531661521</v>
       </c>
       <c r="I11" t="n">
-        <v>1.240545384862897</v>
+        <v>0.4194233122749689</v>
       </c>
       <c r="J11" t="n">
-        <v>1.652869067867245</v>
+        <v>0.7483211233652073</v>
       </c>
       <c r="K11" t="n">
-        <v>1.446707664493729</v>
+        <v>0.5838721737064885</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8326683342038856</v>
+        <v>0.4421703706481028</v>
       </c>
       <c r="M11" t="n">
-        <v>0.680794694601877</v>
+        <v>0.4487275185955279</v>
       </c>
       <c r="N11" t="n">
-        <v>1.044958335169214</v>
+        <v>1.01953184652371</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7097775341903777</v>
+        <v>0.4678307780561581</v>
       </c>
       <c r="P11" t="n">
-        <v>123.5379779785652</v>
+        <v>125.2053577530874</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.8894032955254</v>
+        <v>199.5567830700477</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9303587806292477</v>
+        <v>0.9696173660549059</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7777074431702625</v>
+        <v>0.79149632895323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8069662257413082</v>
+        <v>0.9663886075712891</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5999627291628298</v>
+        <v>0.9213192229581063</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8258449173003667</v>
+        <v>0.9589591234544479</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4656911546005504</v>
+        <v>0.2031688130900099</v>
       </c>
       <c r="H12" t="n">
-        <v>1.486471351083562</v>
+        <v>1.394265008360878</v>
       </c>
       <c r="I12" t="n">
-        <v>1.251210239779521</v>
+        <v>0.445554047285169</v>
       </c>
       <c r="J12" t="n">
-        <v>1.656650459046992</v>
+        <v>0.7507895966437954</v>
       </c>
       <c r="K12" t="n">
-        <v>1.453930798845477</v>
+        <v>0.5981717465580432</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8264490603732759</v>
+        <v>0.4251055622248336</v>
       </c>
       <c r="M12" t="n">
-        <v>0.682415675816837</v>
+        <v>0.4507425130714984</v>
       </c>
       <c r="N12" t="n">
-        <v>1.045172682835082</v>
+        <v>1.019707654450872</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7114675239315523</v>
+        <v>0.4699315550185843</v>
       </c>
       <c r="P12" t="n">
-        <v>123.5284652458916</v>
+        <v>125.1874361078893</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.8798905628519</v>
+        <v>199.5388614248495</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9300585270513084</v>
+        <v>0.969314632715081</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7773296794156982</v>
+        <v>0.7909086474967216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8054823143287591</v>
+        <v>0.9645666821707579</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5991308470020106</v>
+        <v>0.9210592029318098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8250625053584584</v>
+        <v>0.9580454768851576</v>
       </c>
       <c r="G13" t="n">
-        <v>0.467698951658771</v>
+        <v>0.2051931923273776</v>
       </c>
       <c r="H13" t="n">
-        <v>1.488997459049775</v>
+        <v>1.398194836966573</v>
       </c>
       <c r="I13" t="n">
-        <v>1.260828686921413</v>
+        <v>0.4697055678679608</v>
       </c>
       <c r="J13" t="n">
-        <v>1.660095482958664</v>
+        <v>0.7532707659713243</v>
       </c>
       <c r="K13" t="n">
-        <v>1.460462751873152</v>
+        <v>0.6114881669196426</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8208376393377611</v>
+        <v>0.4096785712669946</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6838851889453162</v>
+        <v>0.4529825519017014</v>
       </c>
       <c r="N13" t="n">
-        <v>1.045367441912665</v>
+        <v>1.01990402202265</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7129995972762224</v>
+        <v>0.4722669569393087</v>
       </c>
       <c r="P13" t="n">
-        <v>123.51986091147</v>
+        <v>125.1676066840567</v>
       </c>
       <c r="Q13" t="n">
-        <v>197.8712862284303</v>
+        <v>199.519032001017</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.929786093283245</v>
+        <v>0.9689953243724148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7769870355391375</v>
+        <v>0.7903561865048536</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8041445196789454</v>
+        <v>0.9628934514053827</v>
       </c>
       <c r="E14" t="n">
-        <v>0.598374643070523</v>
+        <v>0.9207991403229976</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8243556923700417</v>
+        <v>0.9571994265124322</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4695207175202531</v>
+        <v>0.207328408685067</v>
       </c>
       <c r="H14" t="n">
-        <v>1.491288720230067</v>
+        <v>1.401889146163044</v>
       </c>
       <c r="I14" t="n">
-        <v>1.269500031462011</v>
+        <v>0.4918859860442144</v>
       </c>
       <c r="J14" t="n">
-        <v>1.663227105138793</v>
+        <v>0.7557523416307548</v>
       </c>
       <c r="K14" t="n">
-        <v>1.466363568300402</v>
+        <v>0.6238193711171847</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8157774370693958</v>
+        <v>0.3957381071882209</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6852158182063904</v>
+        <v>0.4553332940660797</v>
       </c>
       <c r="N14" t="n">
-        <v>1.045544155708166</v>
+        <v>1.020111140947623</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7143868741797228</v>
+        <v>0.4747177750643317</v>
       </c>
       <c r="P14" t="n">
-        <v>123.5120857090673</v>
+        <v>125.146902455032</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.8635110260276</v>
+        <v>199.4983277719922</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.929539100754167</v>
+        <v>0.9686706010846919</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7766765336769348</v>
+        <v>0.78983959382577</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8029390772316182</v>
+        <v>0.9613638728419847</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5976871655634001</v>
+        <v>0.9205416294099982</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8237172263188799</v>
+        <v>0.9564195642590376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4711723576994936</v>
+        <v>0.2094998348052821</v>
       </c>
       <c r="H15" t="n">
-        <v>1.493365047612346</v>
+        <v>1.405343603786766</v>
       </c>
       <c r="I15" t="n">
-        <v>1.277313492807586</v>
+        <v>0.5121621445225671</v>
       </c>
       <c r="J15" t="n">
-        <v>1.66607411468212</v>
+        <v>0.7582095684372372</v>
       </c>
       <c r="K15" t="n">
-        <v>1.471693791463641</v>
+        <v>0.6351858819096599</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8112146844773406</v>
+        <v>0.3831432221471923</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6864199572415517</v>
+        <v>0.4577115191966246</v>
       </c>
       <c r="N15" t="n">
-        <v>1.045704367078378</v>
+        <v>1.020321772269389</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7156422759065223</v>
+        <v>0.4771972461622885</v>
       </c>
       <c r="P15" t="n">
-        <v>123.5050626239828</v>
+        <v>125.1260646562784</v>
       </c>
       <c r="Q15" t="n">
-        <v>197.8564879409431</v>
+        <v>199.4774899732386</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9293153147656604</v>
+        <v>0.9683483812180614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7763953135985635</v>
+        <v>0.7893586546763777</v>
       </c>
       <c r="D16" t="n">
-        <v>0.801852526153628</v>
+        <v>0.9599705627538775</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5970632959994688</v>
+        <v>0.92028853241165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.823140663081433</v>
+        <v>0.955703111503899</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4726688156350769</v>
+        <v>0.2116545205371266</v>
       </c>
       <c r="H16" t="n">
-        <v>1.495245567571315</v>
+        <v>1.408559646093274</v>
       </c>
       <c r="I16" t="n">
-        <v>1.284356321659924</v>
+        <v>0.5306319222979489</v>
       </c>
       <c r="J16" t="n">
-        <v>1.668657708449043</v>
+        <v>0.7606246766815341</v>
       </c>
       <c r="K16" t="n">
-        <v>1.476507220020602</v>
+        <v>0.645628197764974</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8071033422685753</v>
+        <v>0.3717703597336265</v>
       </c>
       <c r="M16" t="n">
-        <v>0.687509138582955</v>
+        <v>0.460059257636586</v>
       </c>
       <c r="N16" t="n">
-        <v>1.045849525557409</v>
+        <v>1.020530779750447</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7167778259525454</v>
+        <v>0.4796449326881276</v>
       </c>
       <c r="P16" t="n">
-        <v>123.4987206281818</v>
+        <v>125.1055999073864</v>
       </c>
       <c r="Q16" t="n">
-        <v>197.8501459451421</v>
+        <v>199.4570252243467</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9291128055190246</v>
+        <v>0.9680343049319314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7761407667180111</v>
+        <v>0.7889125618458441</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8008738720476339</v>
+        <v>0.9587045991450043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5964978297943777</v>
+        <v>0.9200421105081756</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8226205218023657</v>
+        <v>0.9550467336501939</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4740229958997996</v>
+        <v>0.2137547501086662</v>
       </c>
       <c r="H17" t="n">
-        <v>1.496947723733649</v>
+        <v>1.411542670905121</v>
       </c>
       <c r="I17" t="n">
-        <v>1.290699781727077</v>
+        <v>0.5474135897294757</v>
       </c>
       <c r="J17" t="n">
-        <v>1.670999439873917</v>
+        <v>0.7629760896755265</v>
       </c>
       <c r="K17" t="n">
-        <v>1.480849610800497</v>
+        <v>0.6551949205106991</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8033934334496139</v>
+        <v>0.3615003715693261</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6884932794877519</v>
+        <v>0.4623361873233224</v>
       </c>
       <c r="N17" t="n">
-        <v>1.045980882906579</v>
+        <v>1.020734504909018</v>
       </c>
       <c r="O17" t="n">
-        <v>0.717803863773112</v>
+        <v>0.4820187959855226</v>
       </c>
       <c r="P17" t="n">
-        <v>123.4929988878146</v>
+        <v>125.0858518973632</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.8444242047749</v>
+        <v>199.4372772143234</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9289295854338057</v>
+        <v>0.967732245543654</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7759105724002735</v>
+        <v>0.7885001973949093</v>
       </c>
       <c r="D18" t="n">
-        <v>0.799992439737426</v>
+        <v>0.9575566943655824</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5959850329640041</v>
+        <v>0.9198041571047583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8221511091200964</v>
+        <v>0.9544468274324466</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4752481894533099</v>
+        <v>0.2157746226289332</v>
       </c>
       <c r="H18" t="n">
-        <v>1.498487034196308</v>
+        <v>1.414300153887286</v>
       </c>
       <c r="I18" t="n">
-        <v>1.296413067583089</v>
+        <v>0.5626302642976067</v>
       </c>
       <c r="J18" t="n">
-        <v>1.673123054762745</v>
+        <v>0.7652466943452874</v>
       </c>
       <c r="K18" t="n">
-        <v>1.48476849473739</v>
+        <v>0.6639385678263845</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8000542518347273</v>
+        <v>0.352234614833298</v>
       </c>
       <c r="M18" t="n">
-        <v>0.689382469644616</v>
+        <v>0.4645154708176394</v>
       </c>
       <c r="N18" t="n">
-        <v>1.046099728367261</v>
+        <v>1.020930435323035</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7187309085958312</v>
+        <v>0.4842908560899315</v>
       </c>
       <c r="P18" t="n">
-        <v>123.487836214586</v>
+        <v>125.067041659576</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.8392615315463</v>
+        <v>199.4184669765363</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9287638614055763</v>
+        <v>0.9674447131728899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.775702493480765</v>
+        <v>0.7881200314042497</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7991980996130761</v>
+        <v>0.9565172604078167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5955207302515513</v>
+        <v>0.9195760190031247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8217276374743497</v>
+        <v>0.9538994558023914</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4763563867931686</v>
+        <v>0.217697352916197</v>
       </c>
       <c r="H19" t="n">
-        <v>1.499878458889176</v>
+        <v>1.416842325617329</v>
       </c>
       <c r="I19" t="n">
-        <v>1.301561837539388</v>
+        <v>0.5764090450413795</v>
       </c>
       <c r="J19" t="n">
-        <v>1.675045843857152</v>
+        <v>0.7674236392070966</v>
       </c>
       <c r="K19" t="n">
-        <v>1.48830384069827</v>
+        <v>0.6719165222836434</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7970442458512634</v>
+        <v>0.3438718699120216</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6901857625256903</v>
+        <v>0.4665804892150945</v>
       </c>
       <c r="N19" t="n">
-        <v>1.046207225034221</v>
+        <v>1.021116942806774</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7195683993178983</v>
+        <v>0.4864437865957437</v>
       </c>
       <c r="P19" t="n">
-        <v>123.4831779862904</v>
+        <v>125.0492989402696</v>
       </c>
       <c r="Q19" t="n">
-        <v>197.8346033032506</v>
+        <v>199.4007242572299</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9286141727137279</v>
+        <v>0.967173327784084</v>
       </c>
       <c r="C20" t="n">
-        <v>0.775514451772031</v>
+        <v>0.7877704625230507</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7984829242895604</v>
+        <v>0.9555771513120616</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5951009966535497</v>
+        <v>0.9193591563003917</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8213459001336683</v>
+        <v>0.9534009597280091</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4773573557648122</v>
+        <v>0.2195121082607568</v>
       </c>
       <c r="H20" t="n">
-        <v>1.501135894661332</v>
+        <v>1.419179894335524</v>
       </c>
       <c r="I20" t="n">
-        <v>1.306197475481282</v>
+        <v>0.5888711711907724</v>
       </c>
       <c r="J20" t="n">
-        <v>1.676784061539598</v>
+        <v>0.7694929916872503</v>
       </c>
       <c r="K20" t="n">
-        <v>1.49149076851044</v>
+        <v>0.6791821143607203</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7943321894928975</v>
+        <v>0.3363306832857307</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6909105265986416</v>
+        <v>0.4685211929686391</v>
       </c>
       <c r="N20" t="n">
-        <v>1.046304320401906</v>
+        <v>1.021292976572486</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7203240180979036</v>
+        <v>0.4884671101258872</v>
       </c>
       <c r="P20" t="n">
-        <v>123.4789797901461</v>
+        <v>125.0326957701383</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.8304051071063</v>
+        <v>199.3841210870986</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9284789243557355</v>
+        <v>0.9669188858393023</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7753445928190579</v>
+        <v>0.7874496949931986</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7978388586921109</v>
+        <v>0.9547277527520126</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5947211159750496</v>
+        <v>0.9191539870171391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8210016508069988</v>
+        <v>0.9529475464493514</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4782617621574686</v>
+        <v>0.2212135627171098</v>
       </c>
       <c r="H21" t="n">
-        <v>1.502271742261992</v>
+        <v>1.421324868284644</v>
       </c>
       <c r="I21" t="n">
-        <v>1.310372192956052</v>
+        <v>0.6001308346215775</v>
       </c>
       <c r="J21" t="n">
-        <v>1.678357238706573</v>
+        <v>0.7714507629397483</v>
       </c>
       <c r="K21" t="n">
-        <v>1.494364728263827</v>
+        <v>0.6857906236235817</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7918895799731548</v>
+        <v>0.3295256438161511</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6915647201509549</v>
+        <v>0.4703334590661287</v>
       </c>
       <c r="N21" t="n">
-        <v>1.04639204906655</v>
+        <v>1.021458019996128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7210060620241062</v>
+        <v>0.490356528143055</v>
       </c>
       <c r="P21" t="n">
-        <v>123.4751941536065</v>
+        <v>125.0172533938819</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.8266194705668</v>
+        <v>199.3686787108421</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9283568536272611</v>
+        <v>0.9666814991072463</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7751912242761173</v>
+        <v>0.7871559665071003</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7972591188329985</v>
+        <v>0.9539604696496207</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5943779131497409</v>
+        <v>0.9189610350050056</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8206914211459337</v>
+        <v>0.952535450297474</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4790780496808615</v>
+        <v>0.2228009688874336</v>
       </c>
       <c r="H22" t="n">
-        <v>1.503297318414833</v>
+        <v>1.423289032023678</v>
       </c>
       <c r="I22" t="n">
-        <v>1.314129962553188</v>
+        <v>0.6103019720539036</v>
       </c>
       <c r="J22" t="n">
-        <v>1.67977852407057</v>
+        <v>0.7732919542549309</v>
       </c>
       <c r="K22" t="n">
-        <v>1.496954675407177</v>
+        <v>0.6917969347861812</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7896870377568612</v>
+        <v>0.3233940813370093</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6921546428948241</v>
+        <v>0.4720179751740749</v>
       </c>
       <c r="N22" t="n">
-        <v>1.046471230079614</v>
+        <v>1.021612000579083</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7216210990004903</v>
+        <v>0.4921127575891455</v>
       </c>
       <c r="P22" t="n">
-        <v>123.4717835037574</v>
+        <v>125.0029528445032</v>
       </c>
       <c r="Q22" t="n">
-        <v>197.8232088207176</v>
+        <v>199.3543781614634</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9282466076067658</v>
+        <v>0.9664612384410383</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7750528147757481</v>
+        <v>0.7868874216918182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7967369001402216</v>
+        <v>0.9532681026510482</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5940675647512683</v>
+        <v>0.9187806325540524</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8204116945115199</v>
+        <v>0.9521615336630914</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4798152653275495</v>
+        <v>0.2242738529765742</v>
       </c>
       <c r="H23" t="n">
-        <v>1.50422286338112</v>
+        <v>1.425084792440004</v>
       </c>
       <c r="I23" t="n">
-        <v>1.317514890285737</v>
+        <v>0.6194800184283554</v>
       </c>
       <c r="J23" t="n">
-        <v>1.681063751358812</v>
+        <v>0.7750133948466087</v>
       </c>
       <c r="K23" t="n">
-        <v>1.499289968542051</v>
+        <v>0.6972467785780767</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7877080265665967</v>
+        <v>0.3178629851699389</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6926869894314094</v>
+        <v>0.4735756042878204</v>
       </c>
       <c r="N23" t="n">
-        <v>1.046542741011828</v>
+        <v>1.02175487236257</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7221761086312474</v>
+        <v>0.4937366981989998</v>
       </c>
       <c r="P23" t="n">
-        <v>123.4687082261205</v>
+        <v>124.9897748318227</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.8201335430808</v>
+        <v>199.341200148783</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.928147085218553</v>
+        <v>0.9662575661144158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7749279074934805</v>
+        <v>0.7866423436390472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7962668915587722</v>
+        <v>0.952643507466413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5937865823573115</v>
+        <v>0.9186125573762955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8201596974458805</v>
+        <v>0.9518224585002046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4804807719957863</v>
+        <v>0.225635810762523</v>
       </c>
       <c r="H24" t="n">
-        <v>1.505058118952788</v>
+        <v>1.426723630507365</v>
       </c>
       <c r="I24" t="n">
-        <v>1.320561401457951</v>
+        <v>0.6277596787554098</v>
       </c>
       <c r="J24" t="n">
-        <v>1.682227366966325</v>
+        <v>0.7766172058365124</v>
       </c>
       <c r="K24" t="n">
-        <v>1.501393761835203</v>
+        <v>0.702188807098673</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7859185753705559</v>
+        <v>0.312879567342382</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6931672034911824</v>
+        <v>0.4750113796137131</v>
       </c>
       <c r="N24" t="n">
-        <v>1.046607296074452</v>
+        <v>1.021886984142001</v>
       </c>
       <c r="O24" t="n">
-        <v>0.722676766397725</v>
+        <v>0.4952335974529805</v>
       </c>
       <c r="P24" t="n">
-        <v>123.4659361360611</v>
+        <v>124.9776660726118</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.8173614530214</v>
+        <v>199.3290913895721</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9280573414230497</v>
+        <v>0.966069880879733</v>
       </c>
       <c r="C25" t="n">
-        <v>0.774815243912844</v>
+        <v>0.7864190055097383</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7958431897209217</v>
+        <v>0.9520802005369416</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5935341432231035</v>
+        <v>0.9184565782584757</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8199325037005754</v>
+        <v>0.9515152513753803</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4810808891695494</v>
+        <v>0.2268908627910586</v>
       </c>
       <c r="H25" t="n">
-        <v>1.505811500835273</v>
+        <v>1.428217093606431</v>
       </c>
       <c r="I25" t="n">
-        <v>1.32330776063871</v>
+        <v>0.6352268993658644</v>
       </c>
       <c r="J25" t="n">
-        <v>1.683272778076874</v>
+        <v>0.7781055935133456</v>
       </c>
       <c r="K25" t="n">
-        <v>1.503290485022856</v>
+        <v>0.706666358210607</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7843131069928986</v>
+        <v>0.3083891489854589</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6935999489399847</v>
+        <v>0.4763306234025465</v>
       </c>
       <c r="N25" t="n">
-        <v>1.04666550826613</v>
+        <v>1.022008725915849</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7231279347161894</v>
+        <v>0.4966090041811156</v>
       </c>
       <c r="P25" t="n">
-        <v>123.463439708527</v>
+        <v>124.9665723155379</v>
       </c>
       <c r="Q25" t="n">
-        <v>197.8148650254872</v>
+        <v>199.3179976324981</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9279763628985027</v>
+        <v>0.9658974029033015</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7747136362608109</v>
+        <v>0.7862156641962562</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7954620758467265</v>
+        <v>0.9515722816441099</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5933053887762531</v>
+        <v>0.9183124168927003</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8197278478190666</v>
+        <v>0.9512370909027015</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4816223929360667</v>
+        <v>0.2280442238136439</v>
       </c>
       <c r="H26" t="n">
-        <v>1.506490951672278</v>
+        <v>1.429576837905986</v>
       </c>
       <c r="I26" t="n">
-        <v>1.325778072291406</v>
+        <v>0.64195989380737</v>
       </c>
       <c r="J26" t="n">
-        <v>1.684220105206146</v>
+        <v>0.7794812135533529</v>
       </c>
       <c r="K26" t="n">
-        <v>1.504999051231077</v>
+        <v>0.7107205536803614</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7828648304601942</v>
+        <v>0.3043426369204771</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6939901965705759</v>
+        <v>0.4775397615001749</v>
       </c>
       <c r="N26" t="n">
-        <v>1.046718034876647</v>
+        <v>1.022120603522183</v>
       </c>
       <c r="O26" t="n">
-        <v>0.723534795996339</v>
+        <v>0.497869617790821</v>
       </c>
       <c r="P26" t="n">
-        <v>123.4611897782164</v>
+        <v>124.9564314094827</v>
       </c>
       <c r="Q26" t="n">
-        <v>197.8126150951767</v>
+        <v>199.307856726443</v>
       </c>
     </row>
   </sheetData>
